--- a/statistics/HistoricalDistanceData/historical_distance/Q23018035-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23018035-en.xlsx
@@ -31,52 +31,52 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Colo. GOP hastily deletes '#NeverTrump' tweet</t>
+  </si>
+  <si>
+    <t>The Final 15: The Latest Polls in the Swing States That Will Decide the Election</t>
+  </si>
+  <si>
+    <t>Colorado Loss Reveals Chaotic, Overwhelmed Trump Campaign</t>
+  </si>
+  <si>
     <t>Cruz Sweeps Colorado as Trump Campaign Issues Error-Filled Ballots</t>
   </si>
   <si>
-    <t>The Final 15: The Latest Polls in the Swing States That Will Decide the Election</t>
-  </si>
-  <si>
     <t>Cruz for President Announces Colorado Leadership Team</t>
   </si>
   <si>
-    <t>Colo. GOP hastily deletes '#NeverTrump' tweet</t>
-  </si>
-  <si>
-    <t>Colorado Loss Reveals Chaotic, Overwhelmed Trump Campaign</t>
+    <t>2016-04-10T14:00:00UTC</t>
+  </si>
+  <si>
+    <t>2016-11-07T15:39:00UTC</t>
+  </si>
+  <si>
+    <t>2016-04-08T08:37:51UTC</t>
   </si>
   <si>
     <t>2016-04-10T02:23:42UTC</t>
   </si>
   <si>
-    <t>2016-11-07T15:39:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
-    <t>2016-04-10T14:00:00UTC</t>
-  </si>
-  <si>
-    <t>2016-04-08T08:37:51UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>http://www.thedenverchannel.com/news/politics/colorado-gop-hastly-deletes-nevertrump-tweet-following-sweeping-ted-cruz-delegate-victory</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/Politics/final-15-latest-polls-swing-states-decide-election/story?id=43277505</t>
+  </si>
+  <si>
+    <t>http://www.nbcnews.com/politics/2016-election/colorado-loss-reveals-chaotic-overwhelmed-trump-campaign-n552781</t>
+  </si>
+  <si>
     <t>http://www.nbcnews.com/politics/2016-election/cruz-sweeps-colorado-trump-campaign-issues-error-filled-ballots-n553586</t>
   </si>
   <si>
-    <t>https://abcnews.go.com/Politics/final-15-latest-polls-swing-states-decide-election/story?id=43277505</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20160507125746/https://www.tedcruz.org/news/cruz-president-announces-colorado-leadership-team/</t>
-  </si>
-  <si>
-    <t>http://www.thedenverchannel.com/news/politics/colorado-gop-hastly-deletes-nevertrump-tweet-following-sweeping-ted-cruz-delegate-victory</t>
-  </si>
-  <si>
-    <t>http://www.nbcnews.com/politics/2016-election/colorado-loss-reveals-chaotic-overwhelmed-trump-campaign-n552781</t>
   </si>
 </sst>
 </file>
